--- a/doc/版本规划.xlsx
+++ b/doc/版本规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15615" windowHeight="6660" activeTab="1"/>
+    <workbookView windowWidth="15615" windowHeight="6660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="平台" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="5月报" sheetId="3" r:id="rId3"/>
     <sheet name="6月报" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>序号</t>
   </si>
@@ -123,10 +123,16 @@
     <t>交付关键特性</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>6月上旬</t>
   </si>
   <si>
     <t>订单、计费</t>
+  </si>
+  <si>
+    <t>√</t>
   </si>
   <si>
     <t>6月中旬</t>
@@ -166,9 +172,6 @@
   </si>
   <si>
     <t>计划</t>
-  </si>
-  <si>
-    <t>状态</t>
   </si>
   <si>
     <t>游戏管理</t>
@@ -295,6 +298,9 @@
     <t>游戏账号中添加游戏容易点错</t>
   </si>
   <si>
+    <t>天才</t>
+  </si>
+  <si>
     <t>订单项里面显示游戏和账号，而不是账号ID</t>
   </si>
   <si>
@@ -302,6 +308,15 @@
   </si>
   <si>
     <t>选择游戏账号界面添加用户名过滤</t>
+  </si>
+  <si>
+    <t>增加起租、退租、换租的简表</t>
+  </si>
+  <si>
+    <t>老孟</t>
+  </si>
+  <si>
+    <t>游戏价格管理</t>
   </si>
 </sst>
 </file>
@@ -309,12 +324,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +365,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -357,10 +385,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,18 +408,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,6 +421,28 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,14 +460,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -426,14 +469,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,58 +521,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -551,6 +579,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -563,31 +729,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,133 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,7 +1021,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,7 +1060,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,17 +1076,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,6 +1097,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1094,10 +1122,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1106,318 +1134,327 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1772,177 +1809,177 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="54" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="7" style="53" customWidth="1"/>
+    <col min="4" max="4" width="7" style="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:4">
-      <c r="A2" s="57">
+      <c r="A2" s="60">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:4">
-      <c r="A3" s="57">
+      <c r="A3" s="60">
         <v>2</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="57">
+      <c r="A4" s="60">
         <v>3</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="57">
+      <c r="A5" s="60">
         <v>4</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:4">
-      <c r="A6" s="57">
+      <c r="A6" s="60">
         <v>5</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:4">
-      <c r="A7" s="57">
+      <c r="A7" s="60">
         <v>6</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="63" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:4">
-      <c r="A8" s="57">
+      <c r="A8" s="60">
         <v>7</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="63" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:4">
-      <c r="A9" s="57">
+      <c r="A9" s="60">
         <v>8</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="63" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:4">
-      <c r="A10" s="57">
+      <c r="A10" s="60">
         <v>9</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="63" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="57">
+      <c r="A11" s="60">
         <v>10</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="63" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:4">
-      <c r="A12" s="57">
+      <c r="A12" s="60">
         <v>11</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="63" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1961,47 +1998,56 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="1" max="1" width="9" style="54"/>
+    <col min="2" max="2" width="19.125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="54" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="54" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" ht="14.25" spans="1:3">
+      <c r="A2" s="54" t="s">
         <v>32</v>
       </c>
+      <c r="B2" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
+      <c r="A3" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+      <c r="A4" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2021,421 +2067,421 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="37"/>
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="38"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" ht="13.5" spans="1:9">
-      <c r="A3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="39"/>
+      <c r="A3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" ht="13.5" spans="1:9">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="40"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" ht="13.5" spans="1:9">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="40"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="41"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" ht="15" spans="1:9">
-      <c r="A7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="42"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="43"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" ht="13.5" spans="1:9">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:9">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:9">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" ht="13.5" spans="1:9">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" ht="13.5" spans="1:9">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" ht="15" spans="1:9">
+      <c r="A15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="46"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="11"/>
+      <c r="B16" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="43"/>
-    </row>
-    <row r="12" ht="13.5" spans="1:9">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" ht="13.5" spans="1:9">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="43"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="44"/>
-    </row>
-    <row r="15" ht="15" spans="1:9">
-      <c r="A15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="45"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="10"/>
-      <c r="B16" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="46"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="10"/>
-      <c r="B17" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="26" t="s">
+      <c r="C17" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="46"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="10"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="11"/>
+      <c r="B19" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="46"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="10"/>
-      <c r="B19" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="46"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="10"/>
-      <c r="B20" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="26" t="s">
+      <c r="C20" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="46"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="10"/>
-      <c r="B21" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="27" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="46"/>
+      <c r="C21" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="10"/>
-      <c r="B22" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="27" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="46"/>
+      <c r="C22" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" ht="17.25" spans="1:9">
-      <c r="A23" s="12"/>
-      <c r="B23" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="29" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="47"/>
+      <c r="C23" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="48"/>
     </row>
     <row r="24" ht="13.5" spans="1:9">
-      <c r="A24" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="48"/>
+      <c r="B24" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" ht="13.5" spans="1:9">
-      <c r="A25" s="16"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="49"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="50"/>
     </row>
     <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="50"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="27" ht="13.5" spans="1:9">
-      <c r="A27" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="35" t="s">
+      <c r="A27" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="51"/>
+      <c r="B27" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="12"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="52"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -2490,37 +2536,79 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A9:B13"/>
+  <dimension ref="A9:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="4" width="3.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/doc/版本规划.xlsx
+++ b/doc/版本规划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>序号</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>游戏价格管理</t>
+  </si>
+  <si>
+    <t>业务介绍目录</t>
+  </si>
+  <si>
+    <t>手动绑定状态</t>
   </si>
 </sst>
 </file>
@@ -324,10 +330,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -384,6 +390,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -392,9 +420,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,29 +439,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,21 +458,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,7 +466,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,14 +497,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,16 +519,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,25 +579,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,25 +699,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,25 +747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,97 +759,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,7 +1027,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,41 +1088,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,17 +1114,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1122,10 +1128,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,133 +1140,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2536,10 +2542,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A9:D15"/>
+  <dimension ref="A9:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2595,19 +2601,38 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>87</v>
       </c>
       <c r="C14" t="s">
         <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>88</v>
       </c>
     </row>

--- a/doc/版本规划.xlsx
+++ b/doc/版本规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15615" windowHeight="6660" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="平台" sheetId="1" r:id="rId1"/>
@@ -330,19 +330,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,23 +383,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,6 +429,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -435,30 +465,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,19 +504,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,40 +519,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,25 +572,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,157 +746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,11 +1016,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,6 +1069,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,54 +1113,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1128,10 +1121,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,297 +1133,294 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1439,28 +1429,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1815,177 +1805,177 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="54" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="53" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="7" style="54" customWidth="1"/>
+    <col min="4" max="4" width="7" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:4">
-      <c r="A2" s="60">
+      <c r="A2" s="59">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="62" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:4">
-      <c r="A3" s="60">
+      <c r="A3" s="59">
         <v>2</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="62" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="60">
+      <c r="A4" s="59">
         <v>3</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="60">
+      <c r="A5" s="59">
         <v>4</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:4">
-      <c r="A6" s="60">
+      <c r="A6" s="59">
         <v>5</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:4">
-      <c r="A7" s="60">
+      <c r="A7" s="59">
         <v>6</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:4">
-      <c r="A8" s="60">
+      <c r="A8" s="59">
         <v>7</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="62" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:4">
-      <c r="A9" s="60">
+      <c r="A9" s="59">
         <v>8</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="62" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:4">
-      <c r="A10" s="60">
+      <c r="A10" s="59">
         <v>9</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="62" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="60">
+      <c r="A11" s="59">
         <v>10</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="62" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:4">
-      <c r="A12" s="60">
+      <c r="A12" s="59">
         <v>11</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="62" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2012,47 +2002,47 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="54"/>
-    <col min="2" max="2" width="19.125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="54" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="54"/>
+    <col min="1" max="1" width="9" style="53"/>
+    <col min="2" max="2" width="19.125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2073,421 +2063,421 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="39"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" ht="13.5" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="40"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" ht="13.5" spans="1:9">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="41"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" ht="13.5" spans="1:9">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="41"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="42"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" ht="15" spans="1:9">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="43"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" ht="13.5" spans="1:9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="18" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="21" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="44"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:9">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="44"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:9">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="44"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:9">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:9">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" ht="13.5" spans="1:9">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="18" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="22" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="44"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" ht="13.5" spans="1:9">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="44"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="45"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" ht="15" spans="1:9">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="46"/>
+      <c r="I15" s="45"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="11"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="27" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="11"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="27" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="47"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="11"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="27" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="47"/>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="11"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="27" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="47"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="11"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="27" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="47"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="11"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="27" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="47"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="11"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="27" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="47"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" ht="17.25" spans="1:9">
-      <c r="A23" s="13"/>
-      <c r="B23" s="29" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="29" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="48"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" ht="13.5" spans="1:9">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="49"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="48"/>
     </row>
     <row r="25" ht="13.5" spans="1:9">
-      <c r="A25" s="17"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="50"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="51"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="50"/>
     </row>
     <row r="27" ht="13.5" spans="1:9">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="52"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="13"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="53"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -2545,7 +2535,7 @@
   <dimension ref="A9:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2624,7 +2614,7 @@
       <c r="B16" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2632,7 +2622,7 @@
       <c r="B17" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>88</v>
       </c>
     </row>

--- a/doc/版本规划.xlsx
+++ b/doc/版本规划.xlsx
@@ -319,10 +319,10 @@
     <t>游戏价格管理</t>
   </si>
   <si>
+    <t>手动绑定状态</t>
+  </si>
+  <si>
     <t>业务介绍目录</t>
-  </si>
-  <si>
-    <t>手动绑定状态</t>
   </si>
 </sst>
 </file>
@@ -330,12 +330,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,41 +390,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,23 +412,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,6 +451,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,41 +481,33 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,6 +518,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -572,187 +579,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,6 +1023,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1035,66 +1092,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,6 +1111,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1121,10 +1128,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1133,16 +1140,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1151,276 +1158,279 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1429,28 +1439,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1805,177 +1815,177 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="54" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="7" style="53" customWidth="1"/>
+    <col min="4" max="4" width="7" style="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:4">
-      <c r="A2" s="59">
+      <c r="A2" s="60">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:4">
-      <c r="A3" s="59">
+      <c r="A3" s="60">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="59">
+      <c r="A4" s="60">
         <v>3</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="59">
+      <c r="A5" s="60">
         <v>4</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:4">
-      <c r="A6" s="59">
+      <c r="A6" s="60">
         <v>5</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:4">
-      <c r="A7" s="59">
+      <c r="A7" s="60">
         <v>6</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="63" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:4">
-      <c r="A8" s="59">
+      <c r="A8" s="60">
         <v>7</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="63" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:4">
-      <c r="A9" s="59">
+      <c r="A9" s="60">
         <v>8</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="63" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:4">
-      <c r="A10" s="59">
+      <c r="A10" s="60">
         <v>9</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="63" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="59">
+      <c r="A11" s="60">
         <v>10</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="63" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:4">
-      <c r="A12" s="59">
+      <c r="A12" s="60">
         <v>11</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="63" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2002,47 +2012,47 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="53"/>
-    <col min="2" max="2" width="19.125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="53"/>
+    <col min="1" max="1" width="9" style="54"/>
+    <col min="2" max="2" width="19.125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="54" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2058,426 +2068,426 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I2"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="37"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" ht="13.5" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" ht="13.5" spans="1:9">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="40"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" ht="13.5" spans="1:9">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="40"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="41"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" ht="15" spans="1:9">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="42"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" ht="13.5" spans="1:9">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="17" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="43"/>
-    </row>
-    <row r="12" ht="13.5" spans="1:9">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:9">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:9">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="17" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="21" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" ht="13.5" spans="1:9">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="43"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="44"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="45"/>
     </row>
     <row r="15" ht="15" spans="1:9">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="45"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="10"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="46"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="10"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="26" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="46"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="10"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="26" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="46"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="10"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="26" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="46"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="10"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="26" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="46"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="10"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="26" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="10"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="26" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="46"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" ht="17.25" spans="1:9">
-      <c r="A23" s="12"/>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="28" t="s">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="47"/>
-    </row>
-    <row r="24" ht="13.5" spans="1:9">
-      <c r="A24" s="14" t="s">
+      <c r="I23" s="48"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="48"/>
-    </row>
-    <row r="25" ht="13.5" spans="1:9">
-      <c r="A25" s="16"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="49"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="49"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="17"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="50"/>
     </row>
     <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="50"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="27" ht="13.5" spans="1:9">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="51"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="12"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="52"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -2535,7 +2545,7 @@
   <dimension ref="A9:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2583,12 +2593,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>86</v>
       </c>
       <c r="C13" t="s">
         <v>83</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -2602,12 +2615,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:4">
       <c r="B15" t="s">
         <v>89</v>
       </c>
       <c r="C15" t="s">
         <v>88</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:3">

--- a/doc/版本规划.xlsx
+++ b/doc/版本规划.xlsx
@@ -10,14 +10,14 @@
     <sheet name="平台" sheetId="1" r:id="rId1"/>
     <sheet name="版本规划" sheetId="2" r:id="rId2"/>
     <sheet name="5月报" sheetId="3" r:id="rId3"/>
-    <sheet name="6月报" sheetId="4" r:id="rId4"/>
+    <sheet name="BUG LIST" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>序号</t>
   </si>
@@ -292,7 +292,16 @@
     <t>1. 订单爆发预计在6月可能中旬，需要赶在此时间点前做好提取和计费，时间较紧</t>
   </si>
   <si>
-    <t>BUG LIST</t>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>提出人</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>关闭时间</t>
   </si>
   <si>
     <t>游戏账号中添加游戏容易点错</t>
@@ -1270,12 +1279,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1517,6 +1538,20 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F9" totalsRowShown="0">
+  <tableColumns count="6">
+    <tableColumn id="1" name="序号"/>
+    <tableColumn id="2" name="内容"/>
+    <tableColumn id="3" name="提出人"/>
+    <tableColumn id="4" name="状态"/>
+    <tableColumn id="5" name="创建时间"/>
+    <tableColumn id="6" name="关闭时间"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1815,177 +1850,177 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="54" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="58" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="7" style="54" customWidth="1"/>
+    <col min="4" max="4" width="7" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:4">
-      <c r="A2" s="60">
+      <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="67" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:4">
-      <c r="A3" s="60">
+      <c r="A3" s="64">
         <v>2</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="67" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="60">
+      <c r="A4" s="64">
         <v>3</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="67" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="60">
+      <c r="A5" s="64">
         <v>4</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="67" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:4">
-      <c r="A6" s="60">
+      <c r="A6" s="64">
         <v>5</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="67" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:4">
-      <c r="A7" s="60">
+      <c r="A7" s="64">
         <v>6</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="67" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:4">
-      <c r="A8" s="60">
+      <c r="A8" s="64">
         <v>7</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="67" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:4">
-      <c r="A9" s="60">
+      <c r="A9" s="64">
         <v>8</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="67" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:4">
-      <c r="A10" s="60">
+      <c r="A10" s="64">
         <v>9</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="67" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="60">
+      <c r="A11" s="64">
         <v>10</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="67" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:4">
-      <c r="A12" s="60">
+      <c r="A12" s="64">
         <v>11</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="67" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2012,47 +2047,47 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="54"/>
-    <col min="2" max="2" width="19.125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="54" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="54"/>
+    <col min="1" max="1" width="9" style="58"/>
+    <col min="2" max="2" width="19.125" style="59" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="58" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="58" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="60" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="59" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="59" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2068,426 +2103,426 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A1" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="39"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="40"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="41"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" ht="13.5" spans="1:9">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="41"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="42"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" ht="15" spans="1:9">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="43"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="18" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="21" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="44"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:9">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="44"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:9">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="44"/>
+      <c r="I9" s="48"/>
+    </row>
+    <row r="10" s="6" customFormat="1" spans="1:9">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="48"/>
+    </row>
+    <row r="11" s="6" customFormat="1" spans="1:9">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="18" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="22" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="44"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="44"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="45"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" ht="15" spans="1:9">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="46"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="11"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="27" t="s">
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="51"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="11"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="27" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="47"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="11"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="27" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="47"/>
+      <c r="I18" s="51"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="11"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="27" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="47"/>
+      <c r="I19" s="51"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="11"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="27" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="47"/>
+      <c r="I20" s="51"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="11"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="27" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="47"/>
+      <c r="I21" s="51"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="11"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="27" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="47"/>
+      <c r="I22" s="51"/>
     </row>
     <row r="23" ht="17.25" spans="1:9">
-      <c r="A23" s="13"/>
-      <c r="B23" s="29" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="29" t="s">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="48"/>
+      <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="49"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="53"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="17"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="50"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="54"/>
     </row>
     <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="51"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" ht="13.5" spans="1:9">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="52"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="56"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="13"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="53"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -2542,108 +2577,195 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A9:D17"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="40.125" customWidth="1"/>
-    <col min="3" max="3" width="5.125" customWidth="1"/>
-    <col min="4" max="4" width="3.25" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
+      <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E2" s="3">
+        <v>42532</v>
+      </c>
+      <c r="F2" s="4">
+        <v>42533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E3" s="3">
+        <v>42532</v>
+      </c>
+      <c r="F3" s="3">
+        <v>42533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
+      <c r="E4" s="3">
+        <v>42532</v>
+      </c>
+      <c r="F4" s="4">
+        <v>42533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E5" s="3">
+        <v>42532</v>
+      </c>
+      <c r="F5" s="3">
+        <v>42533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E6" s="3">
+        <v>42532</v>
+      </c>
+      <c r="F6" s="4">
+        <v>42533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
+      <c r="E7" s="3">
+        <v>42532</v>
+      </c>
+      <c r="F7" s="3">
+        <v>42533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C17" t="s">
-        <v>88</v>
+      <c r="E8" s="3">
+        <v>42532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="3">
+        <v>42532</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/doc/版本规划.xlsx
+++ b/doc/版本规划.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
   <si>
     <t>时间</t>
   </si>
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>RP</t>
+  </si>
+  <si>
+    <t>操作维护中心OMC</t>
+  </si>
+  <si>
+    <t>易用性与自动化</t>
+  </si>
+  <si>
+    <t>游戏管理易用性与自动化整改</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>账号管理易用性与自动化整改</t>
+  </si>
+  <si>
+    <t>用户管理易用性与自动化整改</t>
+  </si>
+  <si>
+    <t>订单管理易用性与自动化整改</t>
   </si>
   <si>
     <t>用户账户关联</t>
@@ -108,6 +129,12 @@
   </si>
   <si>
     <t>1. 转账、退款自动化实现</t>
+  </si>
+  <si>
+    <t>余额与订单分离</t>
+  </si>
+  <si>
+    <t>1. 订单项中的余额分离出去</t>
   </si>
   <si>
     <t>业务介绍目录</t>
@@ -236,9 +263,6 @@
   </si>
   <si>
     <t>1. 游戏数据库</t>
-  </si>
-  <si>
-    <t>操作维护中心OMC</t>
   </si>
   <si>
     <t>业务监控台</t>
@@ -680,6 +704,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -688,9 +748,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,91 +818,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,15 +832,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,19 +887,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,25 +917,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,13 +965,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,13 +1013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,13 +1031,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,61 +1067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,6 +1329,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1329,21 +1377,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1374,9 +1407,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,17 +1430,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1414,10 +1438,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1426,137 +1450,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1656,18 +1680,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1747,28 +1765,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1833,8 +1842,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G44" totalsRowShown="0">
-  <autoFilter ref="A1:G44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G49" totalsRowShown="0">
+  <autoFilter ref="A1:G49"/>
   <tableColumns count="7">
     <tableColumn id="1" name="IR"/>
     <tableColumn id="2" name="SR"/>
@@ -2159,7 +2168,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="66" customWidth="1"/>
     <col min="3" max="3" width="5.125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -2179,10 +2188,10 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="67" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2190,7 +2199,7 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="66" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2198,7 +2207,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2211,775 +2220,860 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="66" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="66" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="50.875" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="66" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="66" customWidth="1"/>
-    <col min="7" max="7" width="3.375" style="66" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="66" customFormat="1" spans="1:7">
-      <c r="A1" s="66" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="66" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:5">
+      <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="1:5">
-      <c r="A3" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="66" t="s">
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:5">
-      <c r="A4" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="40.5" spans="1:5">
-      <c r="A7" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" ht="40.5" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" ht="40.5" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" ht="40.5" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="38" ht="27" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" ht="40.5" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" ht="27" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="68" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="68" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" ht="27" spans="1:5">
-      <c r="A23" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" ht="40.5" spans="1:5">
-      <c r="A25" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" ht="40.5" spans="1:5">
-      <c r="A26" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" ht="40.5" spans="1:5">
-      <c r="A27" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" ht="27" spans="1:5">
-      <c r="A28" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" ht="27" spans="1:5">
-      <c r="A30" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" ht="40.5" spans="1:5">
-      <c r="A31" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" ht="40.5" spans="1:5">
-      <c r="A33" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" ht="40.5" spans="1:5">
-      <c r="A36" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="1:5">
-      <c r="A39" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" s="68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" ht="27" spans="1:5">
-      <c r="A42" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="68" t="s">
-        <v>19</v>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2997,18 +3091,18 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+      <selection activeCell="A15" sqref="$A15:$XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="62"/>
-    <col min="2" max="16384" width="9" style="61"/>
+    <col min="1" max="1" width="9" style="60"/>
+    <col min="2" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3017,9 +3111,9 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3028,14 +3122,14 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="44"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3043,7 +3137,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="45"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="12"/>
@@ -3054,7 +3148,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="46"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="12"/>
@@ -3065,9 +3159,9 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -3076,55 +3170,55 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="47"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="48"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="19" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="49"/>
+        <v>142</v>
+      </c>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -3133,11 +3227,11 @@
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="49"/>
-    </row>
-    <row r="10" s="61" customFormat="1" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="I9" s="47"/>
+    </row>
+    <row r="10" s="59" customFormat="1" spans="1:9">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="21"/>
@@ -3146,9 +3240,9 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="49"/>
-    </row>
-    <row r="11" s="61" customFormat="1" spans="1:9">
+      <c r="I10" s="47"/>
+    </row>
+    <row r="11" s="59" customFormat="1" spans="1:9">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="21"/>
@@ -3157,26 +3251,26 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="49"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="19" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="I12" s="49"/>
+        <v>149</v>
+      </c>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="18"/>
@@ -3187,9 +3281,9 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="49"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="47"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
       <c r="A14" s="24"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
@@ -3198,17 +3292,17 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -3217,158 +3311,158 @@
       <c r="H15" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="51"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="12"/>
       <c r="B16" s="28" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="52"/>
+        <v>142</v>
+      </c>
+      <c r="I16" s="50"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="12"/>
       <c r="B17" s="28" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="I17" s="52"/>
+        <v>157</v>
+      </c>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12"/>
       <c r="B18" s="28" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="52"/>
+        <v>142</v>
+      </c>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="12"/>
       <c r="B19" s="28" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="I19" s="52"/>
+        <v>157</v>
+      </c>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="12"/>
       <c r="B20" s="28" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="I20" s="52"/>
+        <v>164</v>
+      </c>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12"/>
       <c r="B21" s="28" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="52"/>
+        <v>142</v>
+      </c>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="12"/>
       <c r="B22" s="28" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" s="52"/>
+        <v>142</v>
+      </c>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="14"/>
-      <c r="B23" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="65"/>
+      <c r="B23" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="53"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="56"/>
+        <v>171</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="18"/>
@@ -3379,9 +3473,9 @@
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
-      <c r="I25" s="57"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="I25" s="55"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:9">
       <c r="A26" s="30"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -3390,33 +3484,33 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
-      <c r="I26" s="58"/>
+      <c r="I26" s="56"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="59"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="A27" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="57"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:9">
       <c r="A28" s="14"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="60"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -3474,7 +3568,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3484,7 +3578,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3493,9 +3587,9 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3504,14 +3598,14 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="44"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3519,7 +3613,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="45"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="12"/>
@@ -3530,7 +3624,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="46"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="12"/>
@@ -3541,9 +3635,9 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -3552,55 +3646,55 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="47"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="48"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="19" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="49"/>
+        <v>142</v>
+      </c>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -3609,9 +3703,9 @@
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="49"/>
+        <v>142</v>
+      </c>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="18"/>
@@ -3622,7 +3716,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="49"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18"/>
@@ -3633,26 +3727,26 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="49"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="19" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="49"/>
+        <v>142</v>
+      </c>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="18"/>
@@ -3663,9 +3757,9 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="49"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="47"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
       <c r="A14" s="24"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
@@ -3674,17 +3768,17 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -3693,198 +3787,198 @@
       <c r="H15" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="51"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="12"/>
       <c r="B16" s="28" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="52"/>
+        <v>142</v>
+      </c>
+      <c r="I16" s="50"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="12"/>
       <c r="B17" s="28" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="I17" s="52"/>
+        <v>157</v>
+      </c>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12"/>
       <c r="B18" s="28" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="52"/>
+        <v>142</v>
+      </c>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="12"/>
       <c r="B19" s="28" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="I19" s="52"/>
+        <v>157</v>
+      </c>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="12"/>
       <c r="B20" s="28" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" s="52"/>
+        <v>142</v>
+      </c>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12"/>
       <c r="B21" s="28" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="52"/>
+        <v>142</v>
+      </c>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="12"/>
       <c r="B22" s="28" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" s="52"/>
+        <v>142</v>
+      </c>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="30"/>
       <c r="B23" s="31" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="53"/>
+        <v>142</v>
+      </c>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="I24" s="54"/>
+      <c r="A24" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="52"/>
     </row>
     <row r="25" ht="14.25" spans="1:9">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37">
+      <c r="A25" s="14"/>
+      <c r="B25" s="35">
         <v>8</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37">
+      <c r="C25" s="35"/>
+      <c r="D25" s="35">
         <v>6</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37">
+      <c r="E25" s="35"/>
+      <c r="F25" s="35">
         <v>0</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37">
+      <c r="G25" s="35"/>
+      <c r="H25" s="35">
         <v>2</v>
       </c>
-      <c r="I25" s="55"/>
+      <c r="I25" s="53"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="56"/>
+        <v>171</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="18"/>
@@ -3895,9 +3989,9 @@
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
-      <c r="I27" s="57"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" s="55"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:9">
       <c r="A28" s="30"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -3906,33 +4000,33 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
-      <c r="I28" s="58"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="59"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="A29" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="57"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:9">
       <c r="A30" s="14"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="60"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -4013,22 +4107,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4036,10 +4130,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -4056,10 +4150,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -4076,10 +4170,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4096,10 +4190,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4116,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -4136,10 +4230,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -4156,19 +4250,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E8" s="3">
         <v>42532</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4176,19 +4270,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E9" s="3">
         <v>42532</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/doc/版本规划.xlsx
+++ b/doc/版本规划.xlsx
@@ -1617,10 +1617,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2297,7 +2297,7 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
@@ -2477,7 +2477,7 @@
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2497,15 +2497,15 @@
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C14" t="s">
@@ -2519,10 +2519,10 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
@@ -2531,7 +2531,7 @@
       <c r="D15" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
@@ -2568,7 +2568,7 @@
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4393,7 +4393,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4403,11 +4403,17 @@
       <c r="C10" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="E10" s="3">
         <v>42545</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="5">
+        <v>42545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4417,7 +4423,13 @@
       <c r="C11" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="4">
+      <c r="D11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="5">
+        <v>42545</v>
+      </c>
+      <c r="F11" s="3">
         <v>42545</v>
       </c>
     </row>
@@ -4428,10 +4440,10 @@
       <c r="B12" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>42545</v>
       </c>
     </row>

--- a/doc/版本规划.xlsx
+++ b/doc/版本规划.xlsx
@@ -4200,7 +4200,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/doc/版本规划.xlsx
+++ b/doc/版本规划.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
   <si>
     <t>交付关键特性</t>
   </si>
@@ -126,6 +126,14 @@
   </si>
   <si>
     <t>1. 转账、退款自动化实现</t>
+  </si>
+  <si>
+    <t>操作流水</t>
+  </si>
+  <si>
+    <t>1. 流水框架设计
+2. 流水数据库脚本编写
+3. 流水界面设计</t>
   </si>
   <si>
     <t>订单管理</t>
@@ -696,12 +704,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,12 +733,26 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,23 +773,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,16 +789,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,9 +811,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,7 +820,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,29 +836,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,6 +853,36 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,37 +933,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +981,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,31 +1023,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,43 +1047,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,31 +1095,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,15 +1378,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1402,10 +1408,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1455,6 +1459,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1463,10 +1478,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1475,137 +1490,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1792,13 +1807,22 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1858,15 +1882,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H54" totalsRowShown="0">
-  <autoFilter ref="A1:H54">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="equal" val="0.0.3"/>
-        <customFilter operator="equal" val="0.0.4"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H55" totalsRowShown="0">
+  <autoFilter ref="A1:H55"/>
   <tableColumns count="8">
     <tableColumn id="1" name="IR"/>
     <tableColumn id="2" name="SR"/>
@@ -2191,7 +2208,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="63" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="66" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -2205,10 +2222,10 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2219,7 +2236,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2263,7 +2280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" hidden="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2283,7 +2300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" hidden="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2303,7 +2320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" hidden="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2323,7 +2340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" hidden="1" spans="1:8">
+    <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2343,7 +2360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="27" hidden="1" spans="1:8">
+    <row r="6" ht="27" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2353,7 +2370,7 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2363,7 +2380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="27" hidden="1" spans="1:8">
+    <row r="7" ht="27" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -2373,7 +2390,7 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="63" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2383,7 +2400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2393,7 +2410,7 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="63" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2403,7 +2420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="27" hidden="1" spans="1:8">
+    <row r="9" ht="27" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2413,7 +2430,7 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="63" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2423,7 +2440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2443,7 +2460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2463,37 +2480,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="40.5" hidden="1" spans="1:8">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="62" customFormat="1" ht="40.5" spans="1:8">
+      <c r="A12" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="27" hidden="1" spans="1:8">
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+    </row>
+    <row r="13" ht="40.5" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="63" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2503,17 +2520,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="40.5" hidden="1" spans="1:8">
+    <row r="14" ht="27" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="63" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2523,21 +2540,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="40.5" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="63" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2545,36 +2565,36 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="63" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5" hidden="1" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" hidden="1" spans="1:8">
+    </row>
+    <row r="18" ht="40.5" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2582,75 +2602,75 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
@@ -2659,49 +2679,49 @@
         <v>62</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="63" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>67</v>
@@ -2710,15 +2730,15 @@
         <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>69</v>
@@ -2727,32 +2747,32 @@
         <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
         <v>71</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="D27" t="s">
-        <v>73</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
         <v>74</v>
@@ -2761,15 +2781,15 @@
         <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
         <v>76</v>
@@ -2778,49 +2798,49 @@
         <v>77</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
         <v>78</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>79</v>
       </c>
-      <c r="D30" t="s">
-        <v>80</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
         <v>82</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
         <v>84</v>
@@ -2829,58 +2849,58 @@
         <v>85</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" ht="27" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
         <v>86</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="62" t="s">
-        <v>88</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="63" t="s">
         <v>90</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" ht="40.5" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="63" t="s">
         <v>92</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:5">
@@ -2888,16 +2908,16 @@
         <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="62" t="s">
+      <c r="D36" s="63" t="s">
         <v>94</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" ht="40.5" spans="1:5">
@@ -2905,194 +2925,194 @@
         <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="63" t="s">
         <v>96</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" ht="27" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" ht="40.5" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
         <v>97</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="62" t="s">
-        <v>99</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="63" t="s">
         <v>101</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="62" t="s">
+      <c r="D40" s="63" t="s">
         <v>103</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" ht="40.5" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="63" t="s">
         <v>105</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" hidden="1" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" ht="40.5" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
         <v>106</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="D42" t="s">
-        <v>108</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" ht="27" hidden="1" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="62" t="s">
+      <c r="D43" t="s">
         <v>110</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
         <v>111</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" hidden="1" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
         <v>113</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>114</v>
       </c>
-      <c r="D45" t="s">
-        <v>115</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" ht="40.5" hidden="1" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="62" t="s">
+      <c r="D46" t="s">
         <v>117</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" hidden="1" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" ht="40.5" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
         <v>118</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="D47" t="s">
-        <v>120</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" hidden="1" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
         <v>121</v>
@@ -3101,49 +3121,49 @@
         <v>122</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" ht="27" hidden="1" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="62" t="s">
+      <c r="D49" t="s">
         <v>124</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" hidden="1" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" ht="27" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
         <v>125</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D50" t="s">
-        <v>127</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
         <v>128</v>
@@ -3152,49 +3172,49 @@
         <v>129</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" ht="27" hidden="1" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="62" t="s">
+      <c r="D52" t="s">
         <v>131</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" ht="27" spans="1:5">
       <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D53" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C53" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" t="s">
-        <v>135</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
         <v>136</v>
@@ -3203,7 +3223,24 @@
         <v>137</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3232,7 +3269,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3256,10 +3293,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3304,18 +3341,18 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
@@ -3326,15 +3363,15 @@
     <row r="8" spans="1:9">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19" t="s">
@@ -3345,19 +3382,19 @@
     <row r="9" spans="1:9">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I9" s="47"/>
     </row>
@@ -3386,19 +3423,19 @@
     <row r="12" spans="1:9">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I12" s="47"/>
     </row>
@@ -3426,13 +3463,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -3446,10 +3483,10 @@
     <row r="16" spans="1:9">
       <c r="A16" s="12"/>
       <c r="B16" s="28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -3463,27 +3500,27 @@
     <row r="17" spans="1:9">
       <c r="A17" s="12"/>
       <c r="B17" s="28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12"/>
       <c r="B18" s="28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -3497,44 +3534,44 @@
     <row r="19" spans="1:9">
       <c r="A19" s="12"/>
       <c r="B19" s="28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="12"/>
       <c r="B20" s="28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12"/>
       <c r="B21" s="28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
@@ -3548,10 +3585,10 @@
     <row r="22" spans="1:9">
       <c r="A22" s="12"/>
       <c r="B22" s="28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -3565,10 +3602,10 @@
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="14"/>
       <c r="B23" s="35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D23" s="61"/>
       <c r="E23" s="61"/>
@@ -3581,10 +3618,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -3618,10 +3655,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="38" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
@@ -3708,7 +3745,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3732,10 +3769,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3780,18 +3817,18 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
@@ -3802,15 +3839,15 @@
     <row r="8" spans="1:9">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19" t="s">
@@ -3821,15 +3858,15 @@
     <row r="9" spans="1:9">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="22" t="s">
@@ -3862,15 +3899,15 @@
     <row r="12" spans="1:9">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="23" t="s">
@@ -3902,13 +3939,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -3922,10 +3959,10 @@
     <row r="16" spans="1:9">
       <c r="A16" s="12"/>
       <c r="B16" s="28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -3939,27 +3976,27 @@
     <row r="17" spans="1:9">
       <c r="A17" s="12"/>
       <c r="B17" s="28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12"/>
       <c r="B18" s="28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -3973,27 +4010,27 @@
     <row r="19" spans="1:9">
       <c r="A19" s="12"/>
       <c r="B19" s="28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="12"/>
       <c r="B20" s="28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -4007,10 +4044,10 @@
     <row r="21" spans="1:9">
       <c r="A21" s="12"/>
       <c r="B21" s="28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
@@ -4024,10 +4061,10 @@
     <row r="22" spans="1:9">
       <c r="A22" s="12"/>
       <c r="B22" s="28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -4041,10 +4078,10 @@
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="30"/>
       <c r="B23" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
@@ -4057,22 +4094,22 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="33" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I24" s="52"/>
     </row>
@@ -4097,10 +4134,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -4134,10 +4171,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="38" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
@@ -4237,22 +4274,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4260,13 +4297,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E2" s="3">
         <v>42532</v>
@@ -4280,13 +4317,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E3" s="3">
         <v>42532</v>
@@ -4300,13 +4337,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E4" s="3">
         <v>42532</v>
@@ -4320,13 +4357,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E5" s="3">
         <v>42532</v>
@@ -4340,13 +4377,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E6" s="3">
         <v>42532</v>
@@ -4360,13 +4397,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E7" s="3">
         <v>42532</v>
@@ -4380,19 +4417,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E8" s="3">
         <v>42532</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4400,19 +4437,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E9" s="3">
         <v>42532</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4420,13 +4457,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E10" s="3">
         <v>42545</v>
@@ -4440,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E11" s="3">
         <v>42545</v>
@@ -4460,13 +4497,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E12" s="3">
         <v>42545</v>
